--- a/biology/Zoologie/Guibemantis/Guibemantis.xlsx
+++ b/biology/Zoologie/Guibemantis/Guibemantis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibemantis est un genre d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibemantis est un genre d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quinze espèces de ce genre sont endémiques de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quinze espèces de ce genre sont endémiques de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (22 mars 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (22 mars 2020) :
 Guibemantis albolineatus (Blommers-Schlösser &amp; Blanc, 1991)
 Guibemantis albomaculatus Lehtinen, Glaw, Vences, Rakotoarison, and Scherz, 2018
 Guibemantis annulatus Lehtinen, Glaw &amp; Vences, 2011
@@ -590,7 +606,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre est formé à partir de Guibe, en l'honneur de l'herpétologiste français Jean Guibé, et du mot grec mantis, la rainette.
 </t>
@@ -621,7 +639,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dubois, 1992 : Notes sur la classification des Ranidae (Amphibiens anoures). Bulletin Mensuel de la Société Linnéenne de Lyon, vol. 61, p. 305-352.</t>
         </is>
